--- a/June2021/06.06.2021/Bank Statement.xlsx
+++ b/June2021/06.06.2021/Bank Statement.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7905" tabRatio="742" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7905" tabRatio="742" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="G. Cost" sheetId="45" r:id="rId1"/>
@@ -2973,6 +2973,12 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2989,12 +2995,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3769,48 +3769,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="325" t="s">
+      <c r="A1" s="327" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="325"/>
-      <c r="C1" s="325"/>
-      <c r="D1" s="325"/>
-      <c r="E1" s="325"/>
-      <c r="F1" s="325"/>
-      <c r="G1" s="325"/>
-      <c r="H1" s="325"/>
-      <c r="I1" s="325"/>
-      <c r="J1" s="325"/>
-      <c r="K1" s="325"/>
-      <c r="L1" s="325"/>
-      <c r="M1" s="325"/>
-      <c r="N1" s="325"/>
-      <c r="O1" s="325"/>
-      <c r="P1" s="325"/>
-      <c r="Q1" s="325"/>
-      <c r="R1" s="325"/>
+      <c r="B1" s="327"/>
+      <c r="C1" s="327"/>
+      <c r="D1" s="327"/>
+      <c r="E1" s="327"/>
+      <c r="F1" s="327"/>
+      <c r="G1" s="327"/>
+      <c r="H1" s="327"/>
+      <c r="I1" s="327"/>
+      <c r="J1" s="327"/>
+      <c r="K1" s="327"/>
+      <c r="L1" s="327"/>
+      <c r="M1" s="327"/>
+      <c r="N1" s="327"/>
+      <c r="O1" s="327"/>
+      <c r="P1" s="327"/>
+      <c r="Q1" s="327"/>
+      <c r="R1" s="327"/>
     </row>
     <row r="2" spans="1:25" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="326" t="s">
+      <c r="A2" s="328" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="326"/>
-      <c r="C2" s="326"/>
-      <c r="D2" s="326"/>
-      <c r="E2" s="326"/>
-      <c r="F2" s="326"/>
-      <c r="G2" s="326"/>
-      <c r="H2" s="326"/>
-      <c r="I2" s="326"/>
-      <c r="J2" s="326"/>
-      <c r="K2" s="326"/>
-      <c r="L2" s="326"/>
-      <c r="M2" s="326"/>
-      <c r="N2" s="326"/>
-      <c r="O2" s="326"/>
-      <c r="P2" s="326"/>
-      <c r="Q2" s="326"/>
-      <c r="R2" s="326"/>
+      <c r="B2" s="328"/>
+      <c r="C2" s="328"/>
+      <c r="D2" s="328"/>
+      <c r="E2" s="328"/>
+      <c r="F2" s="328"/>
+      <c r="G2" s="328"/>
+      <c r="H2" s="328"/>
+      <c r="I2" s="328"/>
+      <c r="J2" s="328"/>
+      <c r="K2" s="328"/>
+      <c r="L2" s="328"/>
+      <c r="M2" s="328"/>
+      <c r="N2" s="328"/>
+      <c r="O2" s="328"/>
+      <c r="P2" s="328"/>
+      <c r="Q2" s="328"/>
+      <c r="R2" s="328"/>
     </row>
     <row r="3" spans="1:25" s="93" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="337" t="s">
@@ -3841,34 +3841,34 @@
       <c r="Y3" s="96"/>
     </row>
     <row r="4" spans="1:25" s="96" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="327" t="s">
+      <c r="A4" s="329" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="329" t="s">
+      <c r="B4" s="331" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="329" t="s">
+      <c r="C4" s="331" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="331" t="s">
+      <c r="D4" s="325" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="331" t="s">
+      <c r="E4" s="325" t="s">
         <v>167</v>
       </c>
-      <c r="F4" s="331" t="s">
+      <c r="F4" s="325" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="331" t="s">
+      <c r="G4" s="325" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="331" t="s">
+      <c r="H4" s="325" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="331" t="s">
+      <c r="I4" s="325" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="331" t="s">
+      <c r="J4" s="325" t="s">
         <v>26</v>
       </c>
       <c r="K4" s="340" t="s">
@@ -3902,16 +3902,16 @@
       <c r="X4" s="95"/>
     </row>
     <row r="5" spans="1:25" s="96" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="328"/>
-      <c r="B5" s="330"/>
-      <c r="C5" s="330"/>
-      <c r="D5" s="332"/>
-      <c r="E5" s="332"/>
-      <c r="F5" s="332"/>
-      <c r="G5" s="332"/>
-      <c r="H5" s="332"/>
-      <c r="I5" s="332"/>
-      <c r="J5" s="332"/>
+      <c r="A5" s="330"/>
+      <c r="B5" s="332"/>
+      <c r="C5" s="332"/>
+      <c r="D5" s="326"/>
+      <c r="E5" s="326"/>
+      <c r="F5" s="326"/>
+      <c r="G5" s="326"/>
+      <c r="H5" s="326"/>
+      <c r="I5" s="326"/>
+      <c r="J5" s="326"/>
       <c r="K5" s="341"/>
       <c r="L5" s="334"/>
       <c r="M5" s="343"/>
@@ -6860,6 +6860,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
@@ -6876,10 +6880,6 @@
     <mergeCell ref="Q4:Q5"/>
     <mergeCell ref="A3:R3"/>
     <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -8845,7 +8845,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:F18"/>
     </sheetView>
   </sheetViews>
@@ -9373,9 +9373,9 @@
   </sheetPr>
   <dimension ref="A1:V168"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10054,29 +10054,17 @@
       </c>
       <c r="D20" s="151"/>
       <c r="E20" s="139"/>
-      <c r="F20" s="141">
-        <v>80</v>
-      </c>
-      <c r="G20" s="141">
-        <v>250</v>
-      </c>
-      <c r="H20" s="141">
-        <v>260</v>
-      </c>
+      <c r="F20" s="141"/>
+      <c r="G20" s="141"/>
+      <c r="H20" s="141"/>
       <c r="I20" s="141"/>
       <c r="J20" s="145"/>
       <c r="K20" s="145"/>
       <c r="L20" s="141"/>
       <c r="M20" s="142"/>
-      <c r="N20" s="143">
-        <v>45</v>
-      </c>
-      <c r="O20" s="143">
-        <v>20</v>
-      </c>
-      <c r="P20" s="143">
-        <v>10</v>
-      </c>
+      <c r="N20" s="143"/>
+      <c r="O20" s="143"/>
+      <c r="P20" s="143"/>
       <c r="Q20" s="148"/>
       <c r="S20" s="121" t="s">
         <v>75</v>
@@ -10335,15 +10323,15 @@
       </c>
       <c r="F29" s="174">
         <f t="shared" si="0"/>
-        <v>1050</v>
+        <v>970</v>
       </c>
       <c r="G29" s="174">
         <f t="shared" si="0"/>
-        <v>1180</v>
+        <v>930</v>
       </c>
       <c r="H29" s="174">
         <f t="shared" si="0"/>
-        <v>1710</v>
+        <v>1450</v>
       </c>
       <c r="I29" s="174">
         <f t="shared" si="0"/>
@@ -10367,15 +10355,15 @@
       </c>
       <c r="N29" s="174">
         <f t="shared" si="0"/>
-        <v>502</v>
+        <v>457</v>
       </c>
       <c r="O29" s="174">
         <f t="shared" si="0"/>
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="P29" s="174">
         <f t="shared" si="0"/>
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="Q29" s="175"/>
     </row>
